--- a/pred_ohlcv/54_21/2020-01-21 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 LINK ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-19766.7114277932</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-23776.1708277932</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-23740.46672779321</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-23740.46672779321</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-25474.6518277932</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-25155.74952000908</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-25152.74952000908</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-18792.02622000908</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-18461.38232000908</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>3999884.55936758</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4001216.32846758</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>3999872.59066758</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4001411.047975368</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4001409.915875368</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4001350.415875368</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4002708.781175368</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4002603.605575368</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4003687.005875368</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4003715.920675368</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4003715.420675368</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4003868.015675368</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4003792.464875368</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4003087.643475369</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>4006303.598475369</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>4006322.800675369</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>4006281.110075369</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>4006729.847637807</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>4006728.728383976</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>4006708.182283976</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>4005996.718483976</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>4005996.718483976</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>4005829.188083976</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>4005832.823183976</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>4006149.667985045</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>4006149.667985045</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>4006116.304485045</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>4005842.087685045</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>4005823.863585045</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>4001687.904748597</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>4001546.962748597</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>4001793.797448597</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>4002089.468248597</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4002184.986848597</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4002524.469148597</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4002496.351948597</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4002512.216148597</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4001958.120048597</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4001231.797748597</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4001231.797748597</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>4001201.756948597</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4001368.321695508</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4001341.240495509</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4001341.240495509</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4001290.146195509</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4001290.146195509</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4001192.146195509</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4002007.795695508</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>4002261.329395508</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4002197.329395508</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4002573.931295509</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4002536.849795509</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4051229.045876773</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4054837.774176773</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>4051549.160176774</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 LINK ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-20314.2288277932</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-25474.6518277932</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-25209.75778929235</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-25155.74952000908</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-25152.74952000908</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-25075.55092000908</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-24731.54662000908</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-26788.34102000908</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-26900.76382000908</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-26900.76382000908</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-26900.54422000908</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-20993.49092000908</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-18461.38232000908</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>3999884.55936758</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4001216.32846758</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>3999872.59066758</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4001411.047975368</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4001409.915875368</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4001350.415875368</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4002708.781175368</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4002603.605575368</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4003687.005875368</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4003715.920675368</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4003715.420675368</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4003868.015675368</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4003792.464875368</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4003087.643475369</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>4006303.598475369</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>4006322.800675369</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>4006281.110075369</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>4006729.847637807</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>4006728.728383976</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>4006708.182283976</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>4005996.718483976</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>4005996.718483976</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>4005829.188083976</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>4005832.823183976</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>4006149.667985045</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>4006149.667985045</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>4006116.304485045</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>4005842.087685045</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4002069.994385045</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>4001687.904748597</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>4001546.962748597</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>4001793.797448597</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>4002089.468248597</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4002184.986848597</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4002524.469148597</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4002496.351948597</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4002512.216148597</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4001958.120048597</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4001231.797748597</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4001231.797748597</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>4001201.756948597</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4001368.321695508</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4001341.240495509</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4001341.240495509</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4001290.146195509</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4001290.146195509</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4001192.146195509</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4002007.795695508</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>4002261.329395508</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4002197.329395508</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4051229.045876773</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4054837.774176773</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>4054496.186876773</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>4056497.505576774</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
